--- a/input/submitted_ratings/group_02/1.xlsx
+++ b/input/submitted_ratings/group_02/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chat/Seafile/2020 HS - HCI/Project/1 Instruction/Peer assessment/input/submitted_ratings/group_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F891AC-9182-844F-9411-F74E5678A579}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C1FC2-0AD0-674E-A22C-7CD620C800DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="980" windowWidth="16160" windowHeight="15940" xr2:uid="{50EDE1AE-5C62-B246-8B6C-A7BCEBA9A8A5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16160" windowHeight="15940" xr2:uid="{50EDE1AE-5C62-B246-8B6C-A7BCEBA9A8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>1: Made only a small contribution or contributed in a poor standard</t>
   </si>
@@ -83,31 +83,13 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Veselin</t>
-  </si>
-  <si>
-    <t>Rawda</t>
-  </si>
-  <si>
-    <t>Hannah</t>
-  </si>
-  <si>
-    <t>Mirit</t>
-  </si>
-  <si>
-    <t>Bogdana</t>
-  </si>
-  <si>
-    <t>Martin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,13 +101,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA1E63-6C45-C048-8516-400D26DBE315}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,8 +504,8 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -541,8 +515,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -552,8 +526,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -563,8 +537,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -574,24 +548,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17">
         <v>2</v>
       </c>
     </row>
